--- a/hackathon_contributions_new_data_format/Weber_BMC2015/General_info.xlsx
+++ b/hackathon_contributions_new_data_format/Weber_BMC2015/General_info.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">The model contains 135 data points, 36 free parameters and 3 experimental conditions</t>
   </si>
   <si>
-    <t xml:space="preserve">Errors are assumed as additive Gaussian errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likelihood value of the model is </t>
+    <t xml:space="preserve">Errors are assumend as additive Gaussian errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-likelihood value of the model is </t>
   </si>
   <si>
     <t xml:space="preserve">Chi2 value of the model is </t>
@@ -574,7 +574,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -685,7 +685,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1372,7 +1372,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1673,7 +1673,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1894,7 +1894,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
